--- a/Aggregate outputs/Literature review master list.xlsx
+++ b/Aggregate outputs/Literature review master list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="198">
   <si>
     <t>DOI</t>
   </si>
@@ -615,97 +615,6 @@
     <t>10.18553/jmcp.2009.15.9.751</t>
   </si>
   <si>
-    <t>10.1111/j.1752-699X.2010.00222.x</t>
-  </si>
-  <si>
-    <t>10.1007/s11764-011-0189-3</t>
-  </si>
-  <si>
-    <t>10.1186/1471-2407-12-474</t>
-  </si>
-  <si>
-    <t>10.1097/MLR.0b013e31823ab60f</t>
-  </si>
-  <si>
-    <t>10.1002/pds.3662</t>
-  </si>
-  <si>
-    <t>10.1007/s11136-014-0662-3</t>
-  </si>
-  <si>
-    <t>10.2147/CLEP.S73355</t>
-  </si>
-  <si>
-    <t>10.1016/j.amepre.2014.10.016</t>
-  </si>
-  <si>
-    <t>10.1542/hpeds.2018-0026</t>
-  </si>
-  <si>
-    <t>10.1111/bjhp.12332</t>
-  </si>
-  <si>
-    <t>10.2147/CLEP.S175616</t>
-  </si>
-  <si>
-    <t>10.1016/j.pec.2018.04.009</t>
-  </si>
-  <si>
-    <t>10.1007/s10620-020-06631-6</t>
-  </si>
-  <si>
-    <r>
-      <t>10.1002/pds</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Mulish"/>
-      </rPr>
-      <t>.4649</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10.1002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Mulish"/>
-      </rPr>
-      <t>/pds.4937</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10.1111</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Mulish"/>
-      </rPr>
-      <t>/bcpt.13626</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10.1093</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Mulish"/>
-      </rPr>
-      <t>/ijpp/riab032</t>
-    </r>
-  </si>
-  <si>
     <t>Reference lists</t>
   </si>
   <si>
@@ -749,18 +658,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Mulish"/>
     </font>
     <font>
       <sz val="8"/>
@@ -799,97 +703,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1176,23 +990,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D206"/>
+  <dimension ref="A1:D205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B186" sqref="B186:B205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
     <col min="2" max="2" width="61" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1203,10 +1017,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>9681089</v>
       </c>
@@ -1217,7 +1031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>12618640</v>
       </c>
@@ -1228,7 +1042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>15075414</v>
       </c>
@@ -1239,7 +1053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>18184031</v>
       </c>
@@ -1250,7 +1064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20359263</v>
       </c>
@@ -1261,7 +1075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>25089216</v>
       </c>
@@ -1272,10 +1086,10 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>24523393</v>
       </c>
@@ -1286,7 +1100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>27785101</v>
       </c>
@@ -1297,7 +1111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>29807806</v>
       </c>
@@ -1308,10 +1122,10 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>32129795</v>
       </c>
@@ -1322,7 +1136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>32768690</v>
       </c>
@@ -1333,7 +1147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1870949</v>
       </c>
@@ -1344,7 +1158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>7719275</v>
       </c>
@@ -1355,7 +1169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>7485055</v>
       </c>
@@ -1366,7 +1180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10024199</v>
       </c>
@@ -1377,7 +1191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>9663815</v>
       </c>
@@ -1388,7 +1202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10550846</v>
       </c>
@@ -1399,7 +1213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10760637</v>
       </c>
@@ -1410,7 +1224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>12036270</v>
       </c>
@@ -1421,10 +1235,10 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>11573875</v>
       </c>
@@ -1435,7 +1249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>12271879</v>
       </c>
@@ -1446,7 +1260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>14742292</v>
       </c>
@@ -1457,7 +1271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>15528063</v>
       </c>
@@ -1468,10 +1282,10 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>15059162</v>
       </c>
@@ -1482,7 +1296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>14971118</v>
       </c>
@@ -1493,7 +1307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>15931653</v>
       </c>
@@ -1504,7 +1318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>16156886</v>
       </c>
@@ -1515,7 +1329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>16085196</v>
       </c>
@@ -1526,7 +1340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>16293570</v>
       </c>
@@ -1537,7 +1351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>16498575</v>
       </c>
@@ -1548,7 +1362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>16434912</v>
       </c>
@@ -1559,10 +1373,10 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>17419964</v>
       </c>
@@ -1573,7 +1387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>17962430</v>
       </c>
@@ -1584,7 +1398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>17712552</v>
       </c>
@@ -1595,7 +1409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>17925497</v>
       </c>
@@ -1606,7 +1420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>17076693</v>
       </c>
@@ -1617,7 +1431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>18468858</v>
       </c>
@@ -1628,7 +1442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>19241438</v>
       </c>
@@ -1639,7 +1453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>17998884</v>
       </c>
@@ -1650,7 +1464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>18538265</v>
       </c>
@@ -1661,7 +1475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>19330891</v>
       </c>
@@ -1672,7 +1486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>19954266</v>
       </c>
@@ -1683,7 +1497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>20209650</v>
       </c>
@@ -1694,7 +1508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>22253196</v>
       </c>
@@ -1705,10 +1519,10 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>23359430</v>
       </c>
@@ -1719,7 +1533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>24259111</v>
       </c>
@@ -1730,7 +1544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>23819474</v>
       </c>
@@ -1741,7 +1555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>23968693</v>
       </c>
@@ -1752,7 +1566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>24456318</v>
       </c>
@@ -1763,7 +1577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>26553839</v>
       </c>
@@ -1774,7 +1588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>26823152</v>
       </c>
@@ -1785,7 +1599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>27402774</v>
       </c>
@@ -1796,7 +1610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>25924096</v>
       </c>
@@ -1807,7 +1621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>27217727</v>
       </c>
@@ -1818,7 +1632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>28744981</v>
       </c>
@@ -1829,7 +1643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>28221276</v>
       </c>
@@ -1840,7 +1654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>29391782</v>
       </c>
@@ -1851,7 +1665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>32710699</v>
       </c>
@@ -1862,7 +1676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>34059120</v>
       </c>
@@ -1873,7 +1687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>33423510</v>
       </c>
@@ -1884,7 +1698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>32990147</v>
       </c>
@@ -1895,10 +1709,10 @@
         <v>62</v>
       </c>
       <c r="D62" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>19261962</v>
       </c>
@@ -1909,7 +1723,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>23198946</v>
       </c>
@@ -1920,7 +1734,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>9762882</v>
       </c>
@@ -1931,7 +1745,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>17574930</v>
       </c>
@@ -1942,7 +1756,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>30045159</v>
       </c>
@@ -1953,7 +1767,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1753045</v>
       </c>
@@ -1964,7 +1778,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>10493464</v>
       </c>
@@ -1975,7 +1789,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>10405858</v>
       </c>
@@ -1986,7 +1800,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>12622056</v>
       </c>
@@ -1997,7 +1811,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>15620474</v>
       </c>
@@ -2008,7 +1822,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>16571196</v>
       </c>
@@ -2019,7 +1833,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>16970807</v>
       </c>
@@ -2030,7 +1844,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>17962457</v>
       </c>
@@ -2041,7 +1855,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>11166537</v>
       </c>
@@ -2052,10 +1866,10 @@
         <v>62</v>
       </c>
       <c r="D76" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>17006959</v>
       </c>
@@ -2066,7 +1880,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>17617294</v>
       </c>
@@ -2077,10 +1891,10 @@
         <v>62</v>
       </c>
       <c r="D78" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>18303147</v>
       </c>
@@ -2091,7 +1905,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>20110004</v>
       </c>
@@ -2102,7 +1916,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>20577872</v>
       </c>
@@ -2113,7 +1927,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>21858899</v>
       </c>
@@ -2124,7 +1938,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>22819646</v>
       </c>
@@ -2135,7 +1949,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>22621690</v>
       </c>
@@ -2146,7 +1960,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>23350784</v>
       </c>
@@ -2157,7 +1971,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>25464005</v>
       </c>
@@ -2168,7 +1982,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>25453353</v>
       </c>
@@ -2179,7 +1993,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>26608022</v>
       </c>
@@ -2190,7 +2004,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>25793271</v>
       </c>
@@ -2201,7 +2015,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>27174602</v>
       </c>
@@ -2212,7 +2026,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>28110051</v>
       </c>
@@ -2223,7 +2037,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>31044212</v>
       </c>
@@ -2234,7 +2048,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>28398706</v>
       </c>
@@ -2245,7 +2059,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>28679280</v>
       </c>
@@ -2256,7 +2070,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>29097340</v>
       </c>
@@ -2267,7 +2081,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>29488294</v>
       </c>
@@ -2278,7 +2092,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>31407838</v>
       </c>
@@ -2289,7 +2103,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>33640414</v>
       </c>
@@ -2300,7 +2114,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>17764470</v>
       </c>
@@ -2311,7 +2125,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>34387355</v>
       </c>
@@ -2322,10 +2136,10 @@
         <v>62</v>
       </c>
       <c r="D100" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>27146367</v>
       </c>
@@ -2336,10 +2150,10 @@
         <v>62</v>
       </c>
       <c r="D101" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>30993145</v>
       </c>
@@ -2350,10 +2164,10 @@
         <v>62</v>
       </c>
       <c r="D102" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>28288830</v>
       </c>
@@ -2364,10 +2178,10 @@
         <v>62</v>
       </c>
       <c r="D103" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>26991151</v>
       </c>
@@ -2378,7 +2192,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>27980719</v>
       </c>
@@ -2386,10 +2200,10 @@
         <v>96</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>31778616</v>
       </c>
@@ -2397,10 +2211,10 @@
         <v>97</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>34042765</v>
       </c>
@@ -2408,10 +2222,10 @@
         <v>98</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>27942429</v>
       </c>
@@ -2419,10 +2233,10 @@
         <v>99</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>34512031</v>
       </c>
@@ -2430,10 +2244,10 @@
         <v>100</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>24508767</v>
       </c>
@@ -2441,10 +2255,10 @@
         <v>101</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>24780720</v>
       </c>
@@ -2452,10 +2266,10 @@
         <v>102</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>29114718</v>
       </c>
@@ -2463,10 +2277,10 @@
         <v>103</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>21351314</v>
       </c>
@@ -2474,10 +2288,10 @@
         <v>104</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>34212435</v>
       </c>
@@ -2485,10 +2299,10 @@
         <v>105</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>31464843</v>
       </c>
@@ -2496,10 +2310,10 @@
         <v>106</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>22479023</v>
       </c>
@@ -2507,10 +2321,10 @@
         <v>107</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>30147377</v>
       </c>
@@ -2518,10 +2332,10 @@
         <v>108</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>16862605</v>
       </c>
@@ -2529,10 +2343,10 @@
         <v>109</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>32352527</v>
       </c>
@@ -2540,10 +2354,10 @@
         <v>110</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>16779396</v>
       </c>
@@ -2551,10 +2365,10 @@
         <v>16779396</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>29493431</v>
       </c>
@@ -2562,10 +2376,10 @@
         <v>111</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>22948184</v>
       </c>
@@ -2573,10 +2387,10 @@
         <v>112</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>20446111</v>
       </c>
@@ -2584,10 +2398,10 @@
         <v>113</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>25592409</v>
       </c>
@@ -2595,10 +2409,10 @@
         <v>114</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>17010195</v>
       </c>
@@ -2606,10 +2420,10 @@
         <v>115</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>22478861</v>
       </c>
@@ -2617,10 +2431,10 @@
         <v>116</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>36605331</v>
       </c>
@@ -2628,10 +2442,10 @@
         <v>117</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>16434911</v>
       </c>
@@ -2639,10 +2453,10 @@
         <v>118</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>31756128</v>
       </c>
@@ -2650,10 +2464,10 @@
         <v>119</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>35876156</v>
       </c>
@@ -2661,10 +2475,10 @@
         <v>120</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>28904801</v>
       </c>
@@ -2672,10 +2486,10 @@
         <v>121</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>30091938</v>
       </c>
@@ -2683,10 +2497,10 @@
         <v>122</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>29924318</v>
       </c>
@@ -2694,10 +2508,10 @@
         <v>123</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>33098336</v>
       </c>
@@ -2705,10 +2519,10 @@
         <v>124</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>22955858</v>
       </c>
@@ -2716,10 +2530,10 @@
         <v>125</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>35156130</v>
       </c>
@@ -2727,10 +2541,10 @@
         <v>126</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>26369710</v>
       </c>
@@ -2738,10 +2552,10 @@
         <v>127</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>11186035</v>
       </c>
@@ -2749,10 +2563,10 @@
         <v>128</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>11146272</v>
       </c>
@@ -2760,10 +2574,10 @@
         <v>129</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>23507090</v>
       </c>
@@ -2771,10 +2585,10 @@
         <v>130</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>11821355</v>
       </c>
@@ -2782,10 +2596,10 @@
         <v>131</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>21422962</v>
       </c>
@@ -2793,10 +2607,10 @@
         <v>132</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>35794961</v>
       </c>
@@ -2804,10 +2618,10 @@
         <v>133</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>33361656</v>
       </c>
@@ -2815,10 +2629,10 @@
         <v>134</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>31028600</v>
       </c>
@@ -2826,10 +2640,10 @@
         <v>135</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>15756900</v>
       </c>
@@ -2837,10 +2651,10 @@
         <v>136</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>26068920</v>
       </c>
@@ -2848,10 +2662,10 @@
         <v>137</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>35560685</v>
       </c>
@@ -2859,10 +2673,10 @@
         <v>89</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>11166536</v>
       </c>
@@ -2870,10 +2684,10 @@
         <v>90</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>27522472</v>
       </c>
@@ -2881,10 +2695,10 @@
         <v>91</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>33253421</v>
       </c>
@@ -2892,10 +2706,10 @@
         <v>92</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>23222532</v>
       </c>
@@ -2903,10 +2717,10 @@
         <v>93</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>21978077</v>
       </c>
@@ -2914,10 +2728,10 @@
         <v>94</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>24039450</v>
       </c>
@@ -2925,10 +2739,10 @@
         <v>95</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>34853537</v>
       </c>
@@ -2936,10 +2750,10 @@
         <v>85</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>22977313</v>
       </c>
@@ -2947,10 +2761,10 @@
         <v>86</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>16291477</v>
       </c>
@@ -2958,10 +2772,10 @@
         <v>87</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>30779395</v>
       </c>
@@ -2969,10 +2783,10 @@
         <v>88</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>22942650</v>
       </c>
@@ -2980,10 +2794,10 @@
         <v>84</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>24378608</v>
       </c>
@@ -2991,10 +2805,10 @@
         <v>83</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>34716041</v>
       </c>
@@ -3002,10 +2816,10 @@
         <v>76</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>32571722</v>
       </c>
@@ -3013,10 +2827,10 @@
         <v>77</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>30409502</v>
       </c>
@@ -3024,10 +2838,10 @@
         <v>78</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>25590511</v>
       </c>
@@ -3035,10 +2849,10 @@
         <v>79</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>29051836</v>
       </c>
@@ -3046,10 +2860,10 @@
         <v>80</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>16443179</v>
       </c>
@@ -3057,10 +2871,10 @@
         <v>81</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>34126095</v>
       </c>
@@ -3068,10 +2882,10 @@
         <v>82</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>34384635</v>
       </c>
@@ -3079,10 +2893,10 @@
         <v>67</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>24968159</v>
       </c>
@@ -3090,10 +2904,10 @@
         <v>68</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>17073248</v>
       </c>
@@ -3101,10 +2915,10 @@
         <v>69</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>34531594</v>
       </c>
@@ -3112,10 +2926,10 @@
         <v>34531594</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>19729083</v>
       </c>
@@ -3123,10 +2937,10 @@
         <v>70</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>35483759</v>
       </c>
@@ -3134,10 +2948,10 @@
         <v>71</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>24387002</v>
       </c>
@@ -3145,10 +2959,10 @@
         <v>72</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>31003916</v>
       </c>
@@ -3156,10 +2970,10 @@
         <v>73</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>30028081</v>
       </c>
@@ -3167,10 +2981,10 @@
         <v>74</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>23940883</v>
       </c>
@@ -3178,10 +2992,10 @@
         <v>23940883</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>28379785</v>
       </c>
@@ -3189,10 +3003,10 @@
         <v>75</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>30769767</v>
       </c>
@@ -3200,10 +3014,10 @@
         <v>64</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>36577202</v>
       </c>
@@ -3211,10 +3025,10 @@
         <v>65</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>33172419</v>
       </c>
@@ -3222,10 +3036,10 @@
         <v>66</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>23246264</v>
       </c>
@@ -3233,10 +3047,10 @@
         <v>63</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>20546266</v>
       </c>
@@ -3244,10 +3058,10 @@
         <v>181</v>
       </c>
       <c r="C183" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>16641666</v>
       </c>
@@ -3255,249 +3069,238 @@
         <v>182</v>
       </c>
       <c r="C184" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>11166537</v>
-      </c>
-      <c r="B185">
-        <v>11166537</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>183</v>
       </c>
       <c r="C185" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>183</v>
-      </c>
-      <c r="B186" t="s">
-        <v>183</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>19146365</v>
+      </c>
+      <c r="B186">
+        <v>19146365</v>
       </c>
       <c r="C186" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>19146365</v>
+        <v>21801323</v>
       </c>
       <c r="B187">
         <v>19146365</v>
       </c>
       <c r="C187" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>21801323</v>
-      </c>
-      <c r="B188" t="s">
+        <v>21735277</v>
+      </c>
+      <c r="B188">
+        <v>19146365</v>
+      </c>
+      <c r="C188" t="s">
         <v>185</v>
       </c>
-      <c r="C188" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>21735277</v>
-      </c>
-      <c r="B189" t="s">
-        <v>186</v>
+        <v>23066928</v>
+      </c>
+      <c r="B189">
+        <v>19146365</v>
       </c>
       <c r="C189" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>23066928</v>
-      </c>
-      <c r="B190" t="s">
-        <v>187</v>
+        <v>22080337</v>
+      </c>
+      <c r="B190">
+        <v>19146365</v>
       </c>
       <c r="C190" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>22080337</v>
-      </c>
-      <c r="B191" t="s">
-        <v>188</v>
+        <v>24906058</v>
+      </c>
+      <c r="B191">
+        <v>19146365</v>
       </c>
       <c r="C191" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>24906058</v>
-      </c>
-      <c r="B192" t="s">
-        <v>189</v>
+        <v>24604077</v>
+      </c>
+      <c r="B192">
+        <v>19146365</v>
       </c>
       <c r="C192" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>24604077</v>
-      </c>
-      <c r="B193" t="s">
-        <v>190</v>
+        <v>26056490</v>
+      </c>
+      <c r="B193">
+        <v>19146365</v>
       </c>
       <c r="C193" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>26056490</v>
-      </c>
-      <c r="B194" t="s">
-        <v>191</v>
+        <v>25700653</v>
+      </c>
+      <c r="B194">
+        <v>19146365</v>
       </c>
       <c r="C194" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>25700653</v>
-      </c>
-      <c r="B195" t="s">
-        <v>192</v>
+        <v>27462999</v>
+      </c>
+      <c r="B195">
+        <v>19146365</v>
       </c>
       <c r="C195" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>27462999</v>
+        <v>30442704</v>
       </c>
       <c r="B196">
-        <v>27462999</v>
+        <v>19146365</v>
       </c>
       <c r="C196" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>30442704</v>
-      </c>
-      <c r="B197" t="s">
-        <v>193</v>
+        <v>30014548</v>
+      </c>
+      <c r="B197">
+        <v>19146365</v>
       </c>
       <c r="C197" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>30014548</v>
-      </c>
-      <c r="B198" t="s">
-        <v>194</v>
+        <v>30584374</v>
+      </c>
+      <c r="B198">
+        <v>19146365</v>
       </c>
       <c r="C198" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>30584374</v>
-      </c>
-      <c r="B199" t="s">
-        <v>195</v>
+        <v>29731180</v>
+      </c>
+      <c r="B199">
+        <v>19146365</v>
       </c>
       <c r="C199" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>30584374</v>
-      </c>
-      <c r="B200" t="s">
-        <v>196</v>
+        <v>29861727</v>
+      </c>
+      <c r="B200">
+        <v>19146365</v>
       </c>
       <c r="C200" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>29861727</v>
+        <v>30264875</v>
       </c>
       <c r="B201">
-        <v>29861727</v>
+        <v>19146365</v>
       </c>
       <c r="C201" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>30264875</v>
-      </c>
-      <c r="B202" t="s">
-        <v>198</v>
+        <v>31811680</v>
+      </c>
+      <c r="B202">
+        <v>19146365</v>
       </c>
       <c r="C202" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>31811680</v>
-      </c>
-      <c r="B203" t="s">
-        <v>199</v>
+        <v>34137181</v>
+      </c>
+      <c r="B203">
+        <v>19146365</v>
       </c>
       <c r="C203" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>34137181</v>
-      </c>
-      <c r="B204" t="s">
-        <v>200</v>
+        <v>34165141</v>
+      </c>
+      <c r="B204">
+        <v>19146365</v>
       </c>
       <c r="C204" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>34165141</v>
-      </c>
-      <c r="B205" t="s">
-        <v>201</v>
+        <v>32995995</v>
+      </c>
+      <c r="B205">
+        <v>19146365</v>
       </c>
       <c r="C205" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>32995995</v>
-      </c>
-      <c r="B206" t="s">
-        <v>197</v>
-      </c>
-      <c r="C206" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3506,6 +3309,9 @@
       <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
